--- a/graph_expr/output/goodcol_outputs- am_lb3_lb3_cyc_c_q13/am_lb3_lb3_cyc_c_q13__ansgrBYVIEWS_newcols.xlsx
+++ b/graph_expr/output/goodcol_outputs- am_lb3_lb3_cyc_c_q13/am_lb3_lb3_cyc_c_q13__ansgrBYVIEWS_newcols.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="62">
   <si>
     <t xml:space="preserve">*****************************************************</t>
   </si>
@@ -149,7 +149,7 @@
     <t xml:space="preserve">Max Used Memory</t>
   </si>
   <si>
-    <t xml:space="preserve">817.00 MB</t>
+    <t xml:space="preserve">899.00 MB</t>
   </si>
   <si>
     <t xml:space="preserve">preFiltTime</t>
@@ -173,52 +173,51 @@
     <t xml:space="preserve">#edgesSG</t>
   </si>
   <si>
-    <t xml:space="preserve">WITH VIEWS, angr</t>
-  </si>
-  <si>
-    <t xml:space="preserve">no views, match graph, NO FILTER</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DagHomIE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">no views, match graph, prefilter only</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DagHomIEFltSim</t>
-  </si>
-  <si>
-    <t xml:space="preserve">no views, sim graph, prefilter + simulation</t>
+    <t xml:space="preserve">2 VIEWS, no overlap</t>
   </si>
   <si>
     <t xml:space="preserve">IESIM</t>
   </si>
   <si>
-    <t xml:space="preserve">prefilter only?</t>
-  </si>
-  <si>
     <t xml:space="preserve">IEFLT</t>
   </si>
   <si>
-    <t xml:space="preserve">no filter</t>
-  </si>
-  <si>
     <t xml:space="preserve">IEFLTSIM</t>
   </si>
   <si>
+    <t xml:space="preserve">Xiaoying results:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sim only</t>
+  </si>
+  <si>
+    <t xml:space="preserve">prefilt only</t>
+  </si>
+  <si>
     <t xml:space="preserve">all filters</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5 views, E overlap</t>
+  </si>
+  <si>
+    <t xml:space="preserve">run2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">run3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">avg</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="3">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="General"/>
-    <numFmt numFmtId="166" formatCode="#,##0"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="11">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -241,6 +240,13 @@
       <family val="0"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="0"/>
+      <charset val="1"/>
+    </font>
+    <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
@@ -256,8 +262,29 @@
       <charset val="1"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="0"/>
+      <charset val="1"/>
+    </font>
+    <font>
       <b val="true"/>
-      <sz val="10"/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="0"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="0"/>
@@ -272,24 +299,17 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF81D41A"/>
-        <bgColor rgb="FF969696"/>
+        <fgColor rgb="FF00A933"/>
+        <bgColor rgb="FF008000"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
       <diagonal/>
     </border>
   </borders>
@@ -318,16 +338,16 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -339,31 +359,27 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -420,14 +436,14 @@
       <rgbColor rgb="FFFFCC99"/>
       <rgbColor rgb="FF3366FF"/>
       <rgbColor rgb="FF33CCCC"/>
-      <rgbColor rgb="FF81D41A"/>
+      <rgbColor rgb="FF99CC00"/>
       <rgbColor rgb="FFFFCC00"/>
       <rgbColor rgb="FFFF9900"/>
       <rgbColor rgb="FFFF6600"/>
       <rgbColor rgb="FF666699"/>
       <rgbColor rgb="FF969696"/>
       <rgbColor rgb="FF003366"/>
-      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF00A933"/>
       <rgbColor rgb="FF003300"/>
       <rgbColor rgb="FF333300"/>
       <rgbColor rgb="FF993300"/>
@@ -446,336 +462,336 @@
   </sheetPr>
   <dimension ref="A1:L28"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C7" activeCellId="0" sqref="C7"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="L7" activeCellId="0" sqref="L7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.01171875" defaultRowHeight="13.45" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.03125" defaultRowHeight="13.45" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+      <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="0" t="s">
+      <c r="C3" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+      <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+      <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
+      <c r="A6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="0" t="s">
+      <c r="B6" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="0" t="s">
+      <c r="C6" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="0" t="s">
+      <c r="D6" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="0" t="s">
+      <c r="E6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F6" s="0" t="s">
+      <c r="F6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G6" s="0" t="s">
+      <c r="G6" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H6" s="0" t="s">
+      <c r="H6" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="I6" s="0" t="s">
+      <c r="I6" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="J6" s="0" t="s">
+      <c r="J6" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="K6" s="0" t="s">
+      <c r="K6" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="L6" s="0" t="s">
+      <c r="L6" s="1" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="B7" s="0" t="s">
+      <c r="A7" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D7" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E7" s="0" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="F7" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G7" s="0" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="H7" s="0" t="n">
+      <c r="C7" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" s="1" t="n">
+        <v>0.07</v>
+      </c>
+      <c r="F7" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" s="1" t="n">
+        <v>0.07</v>
+      </c>
+      <c r="H7" s="1" t="n">
         <v>942078</v>
       </c>
-      <c r="I7" s="0" t="n">
+      <c r="I7" s="1" t="n">
         <v>1536</v>
       </c>
-      <c r="J7" s="0" t="n">
+      <c r="J7" s="1" t="n">
         <v>70</v>
       </c>
-      <c r="K7" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="L7" s="0" t="n">
+      <c r="K7" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" s="1" t="n">
         <v>6652</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
+      <c r="A8" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="0" t="s">
+      <c r="B8" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="0" t="s">
+      <c r="C8" s="1" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
+      <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="0" t="s">
+      <c r="B9" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="0" t="s">
+      <c r="C9" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D9" s="0" t="s">
+      <c r="D9" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E9" s="0" t="s">
+      <c r="E9" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F9" s="0" t="s">
+      <c r="F9" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G9" s="0" t="s">
+      <c r="G9" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H9" s="0" t="s">
+      <c r="H9" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="I9" s="0" t="s">
+      <c r="I9" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="J9" s="0" t="s">
+      <c r="J9" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="K9" s="0" t="s">
+      <c r="K9" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="L9" s="0" t="s">
+      <c r="L9" s="1" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="B10" s="0" t="s">
+      <c r="A10" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D10" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E10" s="0" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="F10" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G10" s="0" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="H10" s="0" t="n">
+      <c r="C10" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D10" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" s="1" t="n">
+        <v>0.07</v>
+      </c>
+      <c r="F10" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" s="1" t="n">
+        <v>0.07</v>
+      </c>
+      <c r="H10" s="1" t="n">
         <v>942078</v>
       </c>
-      <c r="I10" s="0" t="n">
+      <c r="I10" s="1" t="n">
         <v>1536</v>
       </c>
-      <c r="J10" s="0" t="n">
+      <c r="J10" s="1" t="n">
         <v>70</v>
       </c>
-      <c r="K10" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="L10" s="0" t="n">
+      <c r="K10" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" s="1" t="n">
         <v>6652</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
+      <c r="A12" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B12" s="0" t="n">
-        <v>2.76</v>
+      <c r="B12" s="1" t="n">
+        <v>2.73</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="s">
+      <c r="A13" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B13" s="0" t="n">
+      <c r="B13" s="1" t="n">
         <v>0.75</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="s">
+      <c r="A14" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B14" s="0" t="n">
-        <v>0.08</v>
+      <c r="B14" s="1" t="n">
+        <v>0.07</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="s">
+      <c r="A15" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B15" s="0" t="n">
-        <v>0.08</v>
+      <c r="B15" s="1" t="n">
+        <v>0.07</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="s">
+      <c r="A16" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B16" s="0" t="n">
+      <c r="B16" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="s">
+      <c r="A17" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B17" s="0" t="n">
+      <c r="B17" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="s">
+      <c r="A18" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B18" s="0" t="n">
+      <c r="B18" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="s">
+      <c r="A19" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B19" s="0" t="n">
+      <c r="B19" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="s">
+      <c r="A20" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B20" s="0" t="n">
-        <v>0.08</v>
+      <c r="B20" s="1" t="n">
+        <v>0.07</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0" t="s">
+      <c r="A21" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B21" s="0" t="n">
-        <v>0.08</v>
+      <c r="B21" s="1" t="n">
+        <v>0.07</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0" t="s">
+      <c r="A22" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B22" s="0" t="n">
+      <c r="B22" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="0" t="s">
+      <c r="A23" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B23" s="0" t="n">
+      <c r="B23" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="0" t="s">
+      <c r="A24" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B24" s="0" t="n">
+      <c r="B24" s="1" t="n">
         <v>942078</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="0" t="s">
+      <c r="A25" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B25" s="0" t="n">
+      <c r="B25" s="1" t="n">
         <v>1536</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="0" t="s">
+      <c r="A26" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B26" s="0" t="n">
+      <c r="B26" s="1" t="n">
         <v>70</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="0" t="s">
+      <c r="A27" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B27" s="0" t="s">
+      <c r="B27" s="1" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="0" t="s">
+      <c r="A28" s="1" t="s">
         <v>0</v>
       </c>
     </row>
@@ -795,359 +811,511 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:L15"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F10" activeCellId="0" sqref="F10"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="170" zoomScaleNormal="170" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.01171875" defaultRowHeight="13.45" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.01171875" defaultRowHeight="17" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="28.73"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="2" width="10"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="10.58"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="7" min="3" style="2" width="10"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="2" width="11.4"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="9" min="9" style="2" width="10"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="2" width="11.67"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="11" style="2" width="10"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1"/>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1" t="s">
+    <row r="1" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="3"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="L1" s="2"/>
+      <c r="L1" s="3"/>
     </row>
     <row r="2" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D2" s="0" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="E2" s="0" t="n">
+      <c r="B2" s="3"/>
+      <c r="C2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" s="2" t="n">
+        <v>0.07</v>
+      </c>
+      <c r="E2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="G2" s="0" t="n">
+        <v>0.07</v>
+      </c>
+      <c r="G2" s="2" t="n">
         <v>942078</v>
       </c>
-      <c r="H2" s="0" t="n">
+      <c r="H2" s="2" t="n">
         <v>1536</v>
       </c>
-      <c r="I2" s="0" t="n">
+      <c r="I2" s="2" t="n">
         <v>70</v>
       </c>
-      <c r="J2" s="0" t="n">
+      <c r="J2" s="2" t="n">
         <v>6652</v>
       </c>
       <c r="K2" s="5" t="n">
         <f aca="false">J2-H2</f>
         <v>5116</v>
       </c>
-      <c r="L2" s="2"/>
+      <c r="L2" s="3"/>
     </row>
     <row r="3" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="B3" s="1"/>
-      <c r="C3" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D3" s="0" t="n">
-        <v>6.7</v>
-      </c>
-      <c r="E3" s="0" t="n">
-        <v>0.26</v>
-      </c>
-      <c r="F3" s="6" t="n">
-        <v>6.96</v>
-      </c>
-      <c r="G3" s="0" t="n">
+      <c r="B3" s="3"/>
+      <c r="C3" s="6" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="D3" s="6" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="E3" s="6" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="F3" s="7" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="G3" s="6" t="n">
         <v>942078</v>
       </c>
-      <c r="H3" s="0" t="n">
-        <v>942078</v>
-      </c>
-      <c r="I3" s="0" t="n">
+      <c r="H3" s="6" t="n">
+        <v>278</v>
+      </c>
+      <c r="I3" s="6" t="n">
         <v>70</v>
       </c>
-      <c r="J3" s="0" t="n">
-        <v>3913093</v>
+      <c r="J3" s="6" t="n">
+        <v>1283</v>
       </c>
       <c r="K3" s="5" t="n">
         <f aca="false">J3-H3</f>
-        <v>2971015</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>52</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="B4" s="1"/>
-      <c r="C4" s="0" t="n">
-        <v>0.91</v>
-      </c>
-      <c r="D4" s="0" t="n">
-        <v>4.35</v>
-      </c>
-      <c r="E4" s="0" t="n">
-        <v>0.49</v>
-      </c>
-      <c r="F4" s="6" t="n">
-        <v>5.75</v>
-      </c>
-      <c r="G4" s="0" t="n">
+        <v>52</v>
+      </c>
+      <c r="B4" s="3"/>
+      <c r="C4" s="2" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="D4" s="2" t="n">
+        <v>4.95</v>
+      </c>
+      <c r="E4" s="2" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="F4" s="8" t="n">
+        <v>6.15</v>
+      </c>
+      <c r="G4" s="2" t="n">
         <v>942078</v>
       </c>
-      <c r="H4" s="0" t="n">
+      <c r="H4" s="2" t="n">
         <v>655609</v>
       </c>
-      <c r="I4" s="0" t="n">
+      <c r="I4" s="2" t="n">
         <v>70</v>
       </c>
-      <c r="J4" s="0" t="n">
+      <c r="J4" s="2" t="n">
         <v>2797814</v>
       </c>
       <c r="K4" s="5" t="n">
         <f aca="false">J4-H4</f>
         <v>2142205</v>
       </c>
-      <c r="L4" s="2" t="s">
-        <v>54</v>
-      </c>
+      <c r="L4" s="3"/>
     </row>
     <row r="5" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="B5" s="2"/>
-      <c r="C5" s="0" t="n">
-        <v>3.13</v>
-      </c>
-      <c r="D5" s="0" t="n">
+        <v>53</v>
+      </c>
+      <c r="B5" s="3"/>
+      <c r="C5" s="2" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="D5" s="2" t="n">
         <v>0.01</v>
       </c>
-      <c r="E5" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" s="6" t="n">
-        <v>3.14</v>
-      </c>
-      <c r="G5" s="0" t="n">
+      <c r="E5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" s="8" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="G5" s="2" t="n">
         <v>942078</v>
       </c>
-      <c r="H5" s="0" t="n">
-        <v>271</v>
-      </c>
-      <c r="I5" s="0" t="n">
+      <c r="H5" s="2" t="n">
+        <v>278</v>
+      </c>
+      <c r="I5" s="2" t="n">
         <v>70</v>
       </c>
-      <c r="J5" s="0" t="n">
-        <v>1227</v>
+      <c r="J5" s="2" t="n">
+        <v>1283</v>
       </c>
       <c r="K5" s="5" t="n">
         <f aca="false">J5-H5</f>
-        <v>956</v>
-      </c>
-      <c r="L5" s="2" t="s">
+        <v>1005</v>
+      </c>
+      <c r="L5" s="3"/>
+    </row>
+    <row r="6" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="5"/>
+      <c r="L6" s="3"/>
+    </row>
+    <row r="7" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="3" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
-      <c r="K6" s="2"/>
-      <c r="L6" s="2"/>
-    </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2"/>
-      <c r="K7" s="2"/>
-      <c r="L7" s="2"/>
-    </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="2"/>
-      <c r="B8" s="7"/>
-      <c r="C8" s="7" t="s">
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="5"/>
+      <c r="L7" s="3"/>
+    </row>
+    <row r="8" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="7" t="s">
+      <c r="D8" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E8" s="7" t="s">
+      <c r="E8" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="F8" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="G8" s="7" t="s">
+      <c r="G8" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H8" s="7" t="s">
+      <c r="H8" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="I8" s="7" t="s">
+      <c r="I8" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="J8" s="7" t="s">
+      <c r="J8" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="K8" s="2"/>
-      <c r="L8" s="2"/>
+      <c r="K8" s="5"/>
+      <c r="L8" s="3"/>
     </row>
     <row r="9" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C9" s="6" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="D9" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" s="7" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="G9" s="6" t="n">
+        <v>942078</v>
+      </c>
+      <c r="H9" s="6" t="n">
+        <v>278</v>
+      </c>
+      <c r="I9" s="6" t="n">
+        <v>70</v>
+      </c>
+      <c r="J9" s="6" t="n">
+        <v>1283</v>
+      </c>
+      <c r="K9" s="5" t="n">
+        <f aca="false">J9-H9</f>
+        <v>1005</v>
+      </c>
+      <c r="L9" s="3"/>
+    </row>
+    <row r="10" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B10" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="C10" s="6" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="D10" s="6" t="n">
+        <v>3.13</v>
+      </c>
+      <c r="E10" s="6" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="F10" s="7" t="n">
+        <v>4.09</v>
+      </c>
+      <c r="G10" s="6" t="n">
+        <v>942078</v>
+      </c>
+      <c r="H10" s="6" t="n">
+        <v>655609</v>
+      </c>
+      <c r="I10" s="6" t="n">
+        <v>70</v>
+      </c>
+      <c r="J10" s="6" t="n">
+        <v>2797814</v>
+      </c>
+      <c r="K10" s="5" t="n">
+        <f aca="false">J10-H10</f>
+        <v>2142205</v>
+      </c>
+      <c r="L10" s="3"/>
+    </row>
+    <row r="11" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B11" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="C9" s="8" t="n">
-        <v>6.07</v>
-      </c>
-      <c r="D9" s="8" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="E9" s="8" t="n">
+      <c r="C11" s="6" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="D11" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" s="7" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="G11" s="6" t="n">
+        <v>942078</v>
+      </c>
+      <c r="H11" s="6" t="n">
+        <v>278</v>
+      </c>
+      <c r="I11" s="6" t="n">
+        <v>70</v>
+      </c>
+      <c r="J11" s="6" t="n">
+        <v>1283</v>
+      </c>
+      <c r="K11" s="5" t="n">
+        <f aca="false">J11-H11</f>
+        <v>1005</v>
+      </c>
+      <c r="L11" s="3"/>
+    </row>
+    <row r="12" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K12" s="5"/>
+    </row>
+    <row r="13" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C13" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D13" s="9" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="E13" s="9" t="n">
         <v>0.01</v>
       </c>
-      <c r="F9" s="9" t="n">
-        <v>6.87</v>
-      </c>
-      <c r="G9" s="10" t="n">
+      <c r="F13" s="10" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="G13" s="9" t="n">
         <v>942078</v>
       </c>
-      <c r="H9" s="10" t="n">
-        <v>293536</v>
-      </c>
-      <c r="I9" s="8" t="n">
+      <c r="H13" s="9" t="n">
+        <v>8932</v>
+      </c>
+      <c r="I13" s="9" t="n">
         <v>70</v>
       </c>
-      <c r="J9" s="10" t="n">
-        <v>853680</v>
-      </c>
-      <c r="K9" s="2"/>
-      <c r="L9" s="2"/>
-    </row>
-    <row r="10" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="B10" s="7" t="s">
+      <c r="J13" s="9" t="n">
+        <v>29133</v>
+      </c>
+      <c r="K13" s="5" t="n">
+        <f aca="false">J13-H13</f>
+        <v>20201</v>
+      </c>
+      <c r="L13" s="9"/>
+    </row>
+    <row r="14" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="C10" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D10" s="8" t="n">
-        <v>3.38</v>
-      </c>
-      <c r="E10" s="8" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="F10" s="11" t="n">
-        <v>3.47</v>
-      </c>
-      <c r="G10" s="10" t="n">
+      <c r="C14" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D14" s="9" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="E14" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" s="10" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="G14" s="9" t="n">
         <v>942078</v>
       </c>
-      <c r="H10" s="10" t="n">
-        <v>655609</v>
-      </c>
-      <c r="I10" s="8" t="n">
+      <c r="H14" s="9" t="n">
+        <v>8932</v>
+      </c>
+      <c r="I14" s="9" t="n">
         <v>70</v>
       </c>
-      <c r="J10" s="10" t="n">
-        <v>2797814</v>
-      </c>
-      <c r="K10" s="2"/>
-      <c r="L10" s="2"/>
-    </row>
-    <row r="11" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="2" t="s">
+      <c r="J14" s="9" t="n">
+        <v>29133</v>
+      </c>
+      <c r="K14" s="5" t="n">
+        <f aca="false">J14-H14</f>
+        <v>20201</v>
+      </c>
+      <c r="L14" s="9"/>
+    </row>
+    <row r="15" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="C15" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D15" s="9" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="E15" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" s="10" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="G15" s="9" t="n">
+        <v>942078</v>
+      </c>
+      <c r="H15" s="9" t="n">
+        <v>8932</v>
+      </c>
+      <c r="I15" s="9" t="n">
+        <v>70</v>
+      </c>
+      <c r="J15" s="9" t="n">
+        <v>29133</v>
+      </c>
+      <c r="K15" s="5" t="n">
+        <f aca="false">J15-H15</f>
+        <v>20201</v>
+      </c>
+      <c r="L15" s="9"/>
+    </row>
+    <row r="16" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="C11" s="8" t="n">
-        <v>6.99</v>
-      </c>
-      <c r="D11" s="8" t="n">
-        <v>0.77</v>
-      </c>
-      <c r="E11" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="F11" s="9" t="n">
-        <v>7.76</v>
-      </c>
-      <c r="G11" s="10" t="n">
+      <c r="C16" s="2" t="n">
+        <f aca="false">AVERAGE(C13:C15)</f>
+        <v>0</v>
+      </c>
+      <c r="D16" s="2" t="n">
+        <f aca="false">AVERAGE(D13:D15)</f>
+        <v>0.326666666666667</v>
+      </c>
+      <c r="E16" s="2" t="n">
+        <f aca="false">AVERAGE(E13:E15)</f>
+        <v>0.00333333333333333</v>
+      </c>
+      <c r="F16" s="8" t="n">
+        <f aca="false">AVERAGE(F13:F15)</f>
+        <v>0.336666666666667</v>
+      </c>
+      <c r="G16" s="2" t="n">
+        <f aca="false">AVERAGE(G13:G15)</f>
         <v>942078</v>
       </c>
-      <c r="H11" s="10" t="n">
-        <v>292656</v>
-      </c>
-      <c r="I11" s="8" t="n">
+      <c r="H16" s="2" t="n">
+        <f aca="false">AVERAGE(H13:H15)</f>
+        <v>8932</v>
+      </c>
+      <c r="I16" s="2" t="n">
+        <f aca="false">AVERAGE(I13:I15)</f>
         <v>70</v>
       </c>
-      <c r="J11" s="10" t="n">
-        <v>847988</v>
-      </c>
-      <c r="K11" s="2"/>
-      <c r="L11" s="2"/>
-    </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="13" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="14" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="15" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+      <c r="J16" s="2" t="n">
+        <f aca="false">AVERAGE(J13:J15)</f>
+        <v>29133</v>
+      </c>
+      <c r="K16" s="2" t="n">
+        <f aca="false">AVERAGE(K13:K15)</f>
+        <v>20201</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
